--- a/names_list.xlsx
+++ b/names_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\locke\Data\Personal\Programming\resume-anonymizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F5B0DB-7C6E-4B0C-9153-14D52A813528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D7555B-CB6E-486A-8C81-F3D321AA93BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
